--- a/RC159_5a.xlsx
+++ b/RC159_5a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron.Collins\Documents\GitHub\RC159_5\RC159_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron.Collins\Documents\Microsoft Excel\research data\RC 159\RC159-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFF1F7F-0419-45B4-9FAD-7A0BF400516F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E428A933-E875-4297-A834-2B5736303558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EAD844AD-7230-4336-8A17-18EDA3388347}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
   <si>
     <t>RC 195-5</t>
   </si>
@@ -50,9 +50,6 @@
     <t>concBac</t>
   </si>
   <si>
-    <t>repNo.</t>
-  </si>
-  <si>
     <t>count</t>
   </si>
   <si>
@@ -60,6 +57,12 @@
   </si>
   <si>
     <t>noantibiotic</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>repNo</t>
   </si>
 </sst>
 </file>
@@ -123,22 +126,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,396 +463,437 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C21"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
+    <col min="6" max="6" width="11.5546875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>-3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
         <v>-3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
         <v>-3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
         <v>-3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>75</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
         <v>-4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5">
         <v>-4</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
         <v>-4</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
         <v>-4</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
         <v>-3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
         <v>-3</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
         <v>-3</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5">
         <v>-3</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5">
         <v>-4</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5">
         <v>-4</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5">
         <v>-4</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5">
         <v>-4</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>4</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
         <v>3</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
         <v>4</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>0</v>
       </c>
     </row>

--- a/RC159_5a.xlsx
+++ b/RC159_5a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron.Collins\Documents\Microsoft Excel\research data\RC 159\RC159-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E428A933-E875-4297-A834-2B5736303558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D66BEF2-DF26-4714-BC3C-6207AD1277BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EAD844AD-7230-4336-8A17-18EDA3388347}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
   <si>
-    <t>RC 195-5</t>
-  </si>
-  <si>
     <t>expRep</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>repNo</t>
+  </si>
+  <si>
+    <t>RC 195-5.0</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,33 +478,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5">
         <v>-3</v>
@@ -518,13 +518,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5">
         <v>-3</v>
@@ -538,13 +538,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
         <v>-3</v>
@@ -558,13 +558,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5">
         <v>-3</v>
@@ -579,13 +579,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>-4</v>
@@ -599,13 +599,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5">
         <v>-4</v>
@@ -619,13 +619,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5">
         <v>-4</v>
@@ -639,13 +639,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5">
         <v>-4</v>
@@ -659,13 +659,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5">
         <v>-3</v>
@@ -679,13 +679,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="5">
         <v>-3</v>
@@ -699,13 +699,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5">
         <v>-3</v>
@@ -719,13 +719,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5">
         <v>-3</v>
@@ -739,13 +739,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="5">
         <v>-4</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="5">
         <v>-4</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="5">
         <v>-4</v>
@@ -799,13 +799,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="5">
         <v>-4</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="5">
         <v>0</v>
@@ -839,13 +839,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
@@ -859,13 +859,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
@@ -879,13 +879,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
